--- a/ExcelFiles/failureData.xlsx
+++ b/ExcelFiles/failureData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eslack/Documents/Code/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F602976F-B8C3-D94E-9AD3-99FBD37B13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6148A-645C-3348-9BD0-03B7288DC307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="68800" windowHeight="28800" activeTab="2" xr2:uid="{1C9311C0-11EB-D44C-98C2-CE99152E3C51}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{1C9311C0-11EB-D44C-98C2-CE99152E3C51}"/>
   </bookViews>
   <sheets>
     <sheet name="bigMatrix (2)" sheetId="5" r:id="rId1"/>
@@ -3352,13 +3352,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3415,6 +3408,13 @@
         <u val="none"/>
         <color theme="1"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -19229,7 +19229,7 @@
   <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
@@ -26260,7 +26260,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AV48">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28554,7 +28554,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AA27">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -35593,7 +35593,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:V22">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -35616,7 +35616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:AA48">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35631,7 +35631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:AV27 W2:AV22">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35656,7 +35656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:AA22">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -35669,7 +35669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:AA42 Q28:AV48">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42751,7 +42751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:V27">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -42784,17 +42784,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AV22">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AV27">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:AV27 W2:AA22 B28:AA48">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42809,7 +42809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:AQ27 AB22:AV48">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49891,7 +49891,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AV48">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -51502,7 +51502,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AA31 B32:AV46">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81159,16 +81159,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:CU99">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81183,12 +81183,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO70:BO76 BP70:CB82 BE77:BO82 B2:X27 B28:AO40 AO77:BB82">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD81:BD82">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -81211,7 +81211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF70:CF82">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
